--- a/Analysis/motive charts/common motives.xlsx
+++ b/Analysis/motive charts/common motives.xlsx
@@ -1023,11 +1023,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2120053448"/>
-        <c:axId val="2120056392"/>
+        <c:axId val="2054496520"/>
+        <c:axId val="2054501144"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="2120053448"/>
+        <c:axId val="2054496520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1037,7 +1037,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2120056392"/>
+        <c:crossAx val="2054501144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1045,7 +1045,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2120056392"/>
+        <c:axId val="2054501144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30.0"/>
@@ -1057,7 +1057,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2120053448"/>
+        <c:crossAx val="2054496520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2525,11 +2525,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2120129448"/>
-        <c:axId val="2120132424"/>
+        <c:axId val="-2138890568"/>
+        <c:axId val="2129166216"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="2120129448"/>
+        <c:axId val="-2138890568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2539,7 +2539,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2120132424"/>
+        <c:crossAx val="2129166216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2547,7 +2547,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2120132424"/>
+        <c:axId val="2129166216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30.0"/>
@@ -2559,7 +2559,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2120129448"/>
+        <c:crossAx val="-2138890568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3316,11 +3316,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2120159880"/>
-        <c:axId val="2120162824"/>
+        <c:axId val="2129214312"/>
+        <c:axId val="2129400856"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="2120159880"/>
+        <c:axId val="2129214312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3330,7 +3330,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2120162824"/>
+        <c:crossAx val="2129400856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3338,7 +3338,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2120162824"/>
+        <c:axId val="2129400856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3349,7 +3349,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2120159880"/>
+        <c:crossAx val="2129214312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4802,22 +4802,21 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2120197176"/>
-        <c:axId val="2120200152"/>
+        <c:axId val="2129249368"/>
+        <c:axId val="2129252344"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="2120197176"/>
+        <c:axId val="2129249368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2120200152"/>
+        <c:crossAx val="2129252344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4825,7 +4824,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2120200152"/>
+        <c:axId val="2129252344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4836,13 +4835,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2120197176"/>
+        <c:crossAx val="2129249368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
@@ -4965,13 +4964,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>393700</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
